--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisr\Desktop\Herramientas\Proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07B189-1218-4759-93F6-52F51EFD1FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B40D83-6B1E-4C7B-93AC-2A3680FA1197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3D42C478-6173-4BAA-BC7C-595BABBC4A78}"/>
+    <workbookView xWindow="2010" yWindow="690" windowWidth="15045" windowHeight="8475" xr2:uid="{3D42C478-6173-4BAA-BC7C-595BABBC4A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisr\Desktop\Herramientas\Proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B40D83-6B1E-4C7B-93AC-2A3680FA1197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEA190F-8917-4DC3-A7EF-B4286AE25A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="690" windowWidth="15045" windowHeight="8475" xr2:uid="{3D42C478-6173-4BAA-BC7C-595BABBC4A78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3D42C478-6173-4BAA-BC7C-595BABBC4A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -59,13 +59,16 @@
     <t>bien</t>
   </si>
   <si>
-    <t>nicole</t>
-  </si>
-  <si>
-    <t>soto</t>
-  </si>
-  <si>
-    <t>carolina</t>
+    <t>pedro</t>
+  </si>
+  <si>
+    <t>perez</t>
+  </si>
+  <si>
+    <t>juanito</t>
+  </si>
+  <si>
+    <t>gomez</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +463,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -477,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -491,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
